--- a/misclassification_summary.xlsx
+++ b/misclassification_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chayahaugland/Desktop/Github : Ling 111/ling111-final-project-sarcasm-detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB8DBE5-C13A-C445-8212-59D4C291CBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EE61AB-85E8-BF44-AC3B-8C010536F97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7882,13 +7882,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="93.5" customWidth="1"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
